--- a/Defect Log.xlsx
+++ b/Defect Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownLoad\13.10.2025\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topph\OneDrive\Desktop\Manual Testing - Moriitalia.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8FB67BA-7BD2-4B09-852F-1924C4E7A244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F6332-1D26-413B-8829-5BA9145BC499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
   <si>
     <t>Bug list</t>
   </si>
@@ -1240,6 +1240,75 @@
   <si>
     <t>The developer has completed adding the checkbox.</t>
   </si>
+  <si>
+    <t>_ Does not log out or prompt for re-authentication after the user session has expired.</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_Visit the URL: Moriitalia.com
+_ Mouse hover on "Đăng Nhập / Đăng Ký" label or        icon.
+_ Login attempt using account created successfully.
+_ Press the button "Đăng Nhập".
+_ Do not perform any actions during the configured timeout period (test 60 minute).
+_ Pressing the reload or back button on web browser.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expect:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>_ Redirect the user to the login screen or display a message prompting re-authentication.
+_ Required  re-authentication to access user functional.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Result:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>_ System does not any actions keep user stay sign-in.</t>
+    </r>
+  </si>
+  <si>
+    <t>Consult with the BA to confirm the exact duration of the session timeout period.</t>
+  </si>
+  <si>
+    <t>[Sign-in-16]</t>
+  </si>
 </sst>
 </file>
 
@@ -1872,7 +1941,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2703194</xdr:colOff>
+      <xdr:colOff>2665094</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2836544</xdr:rowOff>
     </xdr:to>
@@ -2090,7 +2159,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2847975</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200000" cy="200000"/>
@@ -2589,11 +2658,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3119,27 +3188,27 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="215.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="234.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>26</v>
@@ -3148,10 +3217,10 @@
         <v>33</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="2"/>
@@ -3169,18 +3238,40 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+    <row r="13" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -15406,18 +15497,18 @@
       <c r="Z449" s="2"/>
     </row>
     <row r="450" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
-      <c r="H450" s="2"/>
-      <c r="I450" s="2"/>
-      <c r="J450" s="2"/>
-      <c r="K450" s="2"/>
-      <c r="L450" s="2"/>
+      <c r="A450" s="15"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="6"/>
+      <c r="F450" s="6"/>
+      <c r="G450" s="6"/>
+      <c r="H450" s="6"/>
+      <c r="I450" s="12"/>
+      <c r="J450" s="10"/>
+      <c r="K450" s="10"/>
+      <c r="L450" s="10"/>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
@@ -30833,22 +30924,50 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:L3" xr:uid="{2EEA3AF8-08F7-40C8-872A-BF13B7696D97}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G4:G317" xr:uid="{9F8EB9AF-312E-443B-99AE-985F67625BF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G4:G318" xr:uid="{9F8EB9AF-312E-443B-99AE-985F67625BF1}">
       <formula1>"Immediately,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="E4:E317" xr:uid="{58893941-3309-4A84-84FE-16162F2246CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="E4:E318" xr:uid="{58893941-3309-4A84-84FE-16162F2246CC}">
       <formula1>"Document Review,Code Review,Design Review,Unit Test,Integration Test,System Test,Acceptance Test,Audit,Inspection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="F4:F317" xr:uid="{575EE1ED-4634-452E-B318-79864759F0F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="F4:F318" xr:uid="{575EE1ED-4634-452E-B318-79864759F0F2}">
       <formula1>"Fatal,Serious,Medium,Cosmetic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="H4:H317" xr:uid="{184CE6F1-2DF6-409B-ABC5-A12B432471D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="H4:H318" xr:uid="{184CE6F1-2DF6-409B-ABC5-A12B432471D8}">
       <formula1>"Oppened,Assigned,Fixed,Accepted,Closed,Cancelled,Deferred"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Defect Log.xlsx
+++ b/Defect Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topph\OneDrive\Desktop\Manual Testing - Moriitalia.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F6332-1D26-413B-8829-5BA9145BC499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656055DF-1058-4C04-A5F3-54D80390302F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>Bug list</t>
   </si>
@@ -1177,6 +1177,168 @@
     <t>_ System does not show an error message and locks access after 5 sign-in attemps with incorrect password.</t>
   </si>
   <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>The developer has completed adding the checkbox and the remember me functionality.</t>
+  </si>
+  <si>
+    <t>The developer has completed adding the checkbox.</t>
+  </si>
+  <si>
+    <t>_ Does not log out or prompt for re-authentication after the user session has expired.</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Consult with the BA to confirm the exact duration of the session timeout period.</t>
+  </si>
+  <si>
+    <t>[Sign-in-16]</t>
+  </si>
+  <si>
+    <t>[Change Password-1]</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>_Missing label "Độ Mạnh Mật Khẩu" on the Change Password page.</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>[Change Password-4]</t>
+  </si>
+  <si>
+    <t>_ The placeholder is inconsistent with the actual function.</t>
+  </si>
+  <si>
+    <t>_ "Mật Khẩu Cũ" or "Mật Khẩu Mới" was not displayed password strength (e.g., "Yếu", "Trung Bình", "Mạnh")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_ Visit the URL: Moriitalia.com
+_ The user successfully sign-in into the system.
+_ Mouse hover on "User Name" label or icon.
+_ Click on the dropdown link "Thông tin của tôi" and select "Đổi Mật Khẩu".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expect:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+_ System will display blank Textbox with placeholder "Mật khẩu ít nhất 4 ký tự bao gồm chữ và số" by default.
+_ Label "Mật khẩu mới*:" will align correctly with textbox.
+_ Allow user input up to 20 character in textbox.
+_ The placeholder will automatically disappear and character are securely hiden ***  when the user starts typing.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+_ The placeholder is inconsistent with the actual function.
+-&gt; Fail.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_ Visit the URL: Moriitalia.com
+_ The user successfully sign-in into the system.
+_ Mouse hover on "User Name" label or icon.
+_ Click on the dropdown link "Thông tin của tôi" and select "Đổi Mật Khẩu".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expect:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+_ The Forgot Password interface wil present the following fields:
++ Title "Đổi Mật Khẩu".
++ Textbox "Mật khẩu cũ"
++ Textbox "Mẩu khẩu mới"
++ Textbox "Xác nhận lại mật khẩu"
++ Label "Độ Mạnh Mật Khẩu"
++ Button "ĐỔI MẬT KHẨU"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+_ Missing label "Độ Mạnh Mật Khẩu" on the Change Password page -&gt; Fail.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">_Visit the URL: Moriitalia.com
 _ Mouse hover on "Đăng Nhập / Đăng Ký" label or        icon.
@@ -1228,23 +1390,9 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-_System does not show an error message and locks access after 5 sign-in attempts with an incorrect password.</t>
+_System does not show an error message and locks access after 5 sign-in attempts with an incorrect password.
+-&gt; Fail.</t>
     </r>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
-    <t>The developer has completed adding the checkbox and the remember me functionality.</t>
-  </si>
-  <si>
-    <t>The developer has completed adding the checkbox.</t>
-  </si>
-  <si>
-    <t>_ Does not log out or prompt for re-authentication after the user session has expired.</t>
-  </si>
-  <si>
-    <t>BA</t>
   </si>
   <si>
     <r>
@@ -1300,14 +1448,68 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>_ System does not any actions keep user stay sign-in.</t>
+      <t>_ System does not any actions keep user stay sign-in.
+-&gt; Fail.</t>
     </r>
   </si>
   <si>
-    <t>Consult with the BA to confirm the exact duration of the session timeout period.</t>
+    <r>
+      <t xml:space="preserve">_ Visit the URL: Moriitalia.com
+_ The user successfully sign-in into the system.
+_ Mouse hover on "User Name" label or icon.
+_ Click on the dropdown link "Thông tin của tôi" and select "Đổi Mật Khẩu".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expect:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+_ Either the "Mật Khẩu Cũ" or "Mật Khẩu Mới" field should be displayed password strength (e.g., "Yếu", "Trung Bình", "Mạnh") when user enter the password.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+_ System was not displayed password strength functional via format "Độ Mạnh Mật Khẩu: [Yếu,Trung Bình, Mạnh]".
+-&gt; Not available.</t>
+    </r>
   </si>
   <si>
-    <t>[Sign-in-16]</t>
+    <t>[Change Password-6]</t>
   </si>
 </sst>
 </file>
@@ -2194,6 +2396,273 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="876190" cy="442856"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EE8ADC-6057-43E5-9BC1-386CC568B67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="28308300"/>
+          <a:ext cx="876190" cy="442856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18314</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1748371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787362F1-1B26-49C8-25B5-14E2FA3ED002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15229739" y="28098750"/>
+          <a:ext cx="2677261" cy="1405471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="876190" cy="442856"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3319BB-AFE3-4991-8C5E-F4D0FC1EE54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="28308300"/>
+          <a:ext cx="876190" cy="442856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1523999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B1E373-F36C-961E-1630-C516B63E6763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15259050" y="31661099"/>
+          <a:ext cx="2696775" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="876190" cy="442856"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A826CD-E9B0-46D6-B95C-C91A53ED09EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="28308300"/>
+          <a:ext cx="876190" cy="442856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2715361</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1462621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59122BD9-0426-4F93-B518-B0CEA5555491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15249525" y="35347275"/>
+          <a:ext cx="2677261" cy="1405471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2662,12 +3131,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="49.6640625" customWidth="1"/>
@@ -3120,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="2"/>
@@ -3170,7 +3639,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="2"/>
@@ -3190,16 +3659,16 @@
     </row>
     <row r="12" spans="1:26" ht="234.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>24</v>
@@ -3217,10 +3686,10 @@
         <v>33</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="2"/>
@@ -3249,7 +3718,7 @@
         <v>87</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>24</v>
@@ -3267,7 +3736,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>35</v>
@@ -3288,18 +3757,40 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+    <row r="14" spans="1:26" ht="297.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3316,18 +3807,40 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+    <row r="15" spans="1:26" ht="295.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3344,18 +3857,40 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+    <row r="16" spans="1:26" ht="250.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="L16" s="10"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
